--- a/data/teacher/Claudinei.xlsx
+++ b/data/teacher/Claudinei.xlsx
@@ -744,7 +744,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MEC-2A-Des. Maq. Cad_T2']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -857,7 +857,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[-, 'MEC-2A-Des. Maq. CAD', 'MEC-2A-Des. Maq. CAD', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[-, 'MEC-2A-Des. Maq. CAD', -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -936,7 +936,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MEC-2A-Des. Maq. Cad_T2', 'MEC-2A-Des. Maq. Cad_T2']</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -985,19 +985,19 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MEC-2NA-Elemaq.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>MEC-2NA-Des. Maq. Cad</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>MEC-2NA-Des. Maq. Cad</t>
-        </is>
-      </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>-</t>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>MEC-2NB-Elemaq.</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1017,27 +1017,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>MEC-2NA-Des. Maq. Cad</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>MEC-2NA-Elemaq.</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>MEC-2NA-Des. Maq. Cad</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>MEC-2NB-Elemaq.</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -1054,12 +1054,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Euclides-Gestão integrada-2NB</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2NA-Des. Maq. Cad</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1091,12 +1091,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2NA-Elemaq.</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2NB-Elemaq.</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">

--- a/data/teacher/Claudinei.xlsx
+++ b/data/teacher/Claudinei.xlsx
@@ -744,7 +744,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[-, 'MEC-2A-Des. Maq. Cad_T2']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MEC-2A-Des. Maq. Cad_T2', 'MEC-2A-Des. Maq. Cad_T2']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MEC-2A-Des. Maq. Cad_T2', -]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -936,7 +936,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['MEC-2A-Des. Maq. Cad_T2', 'MEC-2A-Des. Maq. Cad_T2']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -995,7 +995,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>MEC-2NA-Des. Maq. Cad</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1027,12 +1027,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>MEC-2NA-Des. Maq. Cad</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2NB-Elemaq.</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1054,22 +1054,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Euclides-Gestão integrada-2NB</t>
+          <t>MEC-2NA-Des. Maq. Cad</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>MEC-2NB-Elemaq.</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>MEC-2NA-Des. Maq. Cad</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -1086,22 +1086,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2NA-Des. Maq. Cad</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>MEC-2NA-Elemaq.</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>MEC-2NB-Elemaq.</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>

--- a/data/teacher/Claudinei.xlsx
+++ b/data/teacher/Claudinei.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -776,7 +776,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['MEC-2A-Des. Maq. Cad_T2', 'MEC-2A-Des. Maq. Cad_T2']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['MEC-2A-Des. Maq. Cad_T2', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -862,7 +862,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MEC-2A-Des. Maq. Cad_T2']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MEC-2A-Des. Maq. Cad_T2']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MEC-2A-Des. Maq. Cad_T2']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -990,7 +990,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2NA-Elemaq.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1000,12 +1000,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2NB-Elemaq.</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2NA-Elemaq.</t>
         </is>
       </c>
     </row>
@@ -1032,12 +1032,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>MEC-2NB-Elemaq.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>MEC-2NA-Elemaq.</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1054,17 +1054,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>MEC-2NA-Des. Maq. Cad</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2NB-Elemaq.</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>MEC-2NB-Elemaq.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1101,11 +1101,11 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>MEC-2NA-Elemaq.</t>
+          <t>MEC-2NA-Des. Maq. Cad</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/teacher/Claudinei.xlsx
+++ b/data/teacher/Claudinei.xlsx
@@ -803,7 +803,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MEC-2A-Des. Maq. Cad_T2']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -862,12 +862,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>[-, 'MEC-2A-Des. Maq. Cad_T2']</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -894,12 +894,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>[-, 'MEC-2A-Des. Maq. Cad_T2']</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[-, 'MEC-2A-Des. Maq. Cad_T2']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -990,7 +990,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>MEC-2NA-Elemaq.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1000,12 +1000,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
+          <t>MEC-2NA-Des. Maq. Cad</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>MEC-2NB-Elemaq.</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>MEC-2NA-Elemaq.</t>
         </is>
       </c>
     </row>
@@ -1032,12 +1032,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2NA-Des. Maq. Cad</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2NB-Elemaq.</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>MEC-2NB-Elemaq.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2NA-Elemaq.</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>MEC-2NA-Des. Maq. Cad</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1096,12 +1096,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2NA-Elemaq.</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>MEC-2NA-Des. Maq. Cad</t>
+          <t>-</t>
         </is>
       </c>
     </row>

--- a/data/teacher/Claudinei.xlsx
+++ b/data/teacher/Claudinei.xlsx
@@ -771,7 +771,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MEC-2A-Des. Maq. Cad_T2']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[-, 'MEC-2A-Des. Maq. Cad_T2']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -995,12 +995,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2NA-Des. Maq. Cad</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>MEC-2NA-Des. Maq. Cad</t>
+          <t>MEC-2NA-Elemaq.</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1086,17 +1086,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>MEC-2NA-Des. Maq. Cad</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>MEC-2NA-Elemaq.</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">

--- a/data/teacher/Claudinei.xlsx
+++ b/data/teacher/Claudinei.xlsx
@@ -771,7 +771,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[-, 'MEC-2A-Des. Maq. Cad_T2']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -803,12 +803,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[-, 'MEC-2A-Des. Maq. Cad_T2']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MEC-2A-Des. Maq. Cad_T2', -]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -867,12 +867,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[-, 'MEC-2A-Des. Maq. Cad_T2']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MEC-2A-Des. Maq. Cad_T2', -]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MEC-2A-Des. Maq. Cad_T2', -]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -995,17 +995,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>MEC-2NA-Des. Maq. Cad</t>
+          <t>MEC-2NA-Elemaq.</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>MEC-2NA-Elemaq.</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>MEC-2NB-Elemaq.</t>
         </is>
       </c>
     </row>
@@ -1022,22 +1022,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2NB-Elemaq.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2NA-Des. Maq. Cad</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>MEC-2NA-Des. Maq. Cad</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>MEC-2NB-Elemaq.</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2NB-Elemaq.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1064,12 +1064,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>MEC-2NA-Elemaq.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2NA-Des. Maq. Cad</t>
         </is>
       </c>
     </row>
@@ -1096,12 +1096,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>MEC-2NA-Des. Maq. Cad</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>

--- a/data/teacher/Claudinei.xlsx
+++ b/data/teacher/Claudinei.xlsx
@@ -808,7 +808,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['MEC-2A-Des. Maq. Cad_T2', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -872,7 +872,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['MEC-2A-Des. Maq. Cad_T2', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['MEC-2A-Des. Maq. Cad_T2', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -995,7 +995,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>MEC-2NA-Elemaq.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>MEC-2NA-Elemaq.</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1022,12 +1022,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>MEC-2NB-Elemaq.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>MEC-2NA-Des. Maq. Cad</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>MEC-2NB-Elemaq.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>MEC-2NA-Des. Maq. Cad</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>MEC-2NA-Des. Maq. Cad</t>
+          <t>-</t>
         </is>
       </c>
     </row>

--- a/data/teacher/Claudinei.xlsx
+++ b/data/teacher/Claudinei.xlsx
@@ -808,7 +808,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MEC-2A-Des. Maq. Cad_T2', -]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -872,7 +872,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MEC-2A-Des. Maq. Cad_T2', -]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MEC-2A-Des. Maq. Cad_T2', -]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2NA-Des. Maq. Cad</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -995,7 +995,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2NB-Elemaq.</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2NA-Des. Maq. Cad</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2NA-Elemaq.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1059,12 +1059,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2NA-Des. Maq. Cad</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2NB-Elemaq.</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2NA-Elemaq.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">

--- a/data/teacher/Claudinei.xlsx
+++ b/data/teacher/Claudinei.xlsx
@@ -808,7 +808,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['MEC-2A-Des. Maq. Cad_T2', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -872,12 +872,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['MEC-2A-Des. Maq. Cad_T2', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MEC-2A-Des. Maq. Cad.']</t>
         </is>
       </c>
     </row>
@@ -904,12 +904,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['MEC-2A-Des. Maq. Cad_T2', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MEC-2A-Des. Maq. Cad.']</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MEC-2A-Des. Maq. Cad.']</t>
         </is>
       </c>
     </row>
@@ -985,7 +985,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MEC-2NA-Des. Maq. Cad</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['ELM-2NA-CAD', -]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MEC-2NA-Des. Maq. Cad</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1027,12 +1027,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2NB-Elemaq.</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['ELM-2NA-CAD', -]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MEC-2NA-Elemaq.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1059,12 +1059,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>MEC-2NA-Des. Maq. Cad</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>MEC-2NB-Elemaq.</t>
+          <t>['ELM-2NA-CAD', -]</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MEC-2NA-Elemaq.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['ELM-2NA-CAD', -]</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">

--- a/data/teacher/Claudinei.xlsx
+++ b/data/teacher/Claudinei.xlsx
@@ -729,7 +729,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MEC-2A-Des. Maq. Cad.']</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -877,7 +877,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[-, 'MEC-2A-Des. Maq. Cad.']</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -889,7 +889,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MEC-2A-Des. Maq. Cad.']</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -909,7 +909,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[-, 'MEC-2A-Des. Maq. Cad.']</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MEC-2A-Des. Maq. Cad.']</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[-, 'MEC-2A-Des. Maq. Cad.']</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -995,12 +995,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>MEC-2NB-Elemaq.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['ELM-2NA-CAD', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1027,12 +1027,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>MEC-2NB-Elemaq.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['ELM-2NA-CAD', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1064,7 +1064,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['ELM-2NA-CAD', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['ELM-2NA-CAD', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">

--- a/data/teacher/Claudinei.xlsx
+++ b/data/teacher/Claudinei.xlsx
@@ -729,7 +729,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[-, 'MEC-2A-Des. Maq. Cad.']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -877,7 +877,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2A-Des. Maq. Cad.</t>
         </is>
       </c>
     </row>
@@ -889,7 +889,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[-, 'MEC-2A-Des. Maq. Cad.']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -909,7 +909,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2A-Des. Maq. Cad.</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[-, 'MEC-2A-Des. Maq. Cad.']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2A-Des. Maq. Cad.</t>
         </is>
       </c>
     </row>

--- a/data/teacher/Claudinei.xlsx
+++ b/data/teacher/Claudinei.xlsx
@@ -867,7 +867,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2A-Des. Maq. Cad.</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -877,7 +877,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>MEC-2A-Des. Maq. Cad.</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -899,7 +899,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2A-Des. Maq. Cad.</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -909,7 +909,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>MEC-2A-Des. Maq. Cad.</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -931,7 +931,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2A-Des. Maq. Cad.</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>MEC-2A-Des. Maq. Cad.</t>
+          <t>-</t>
         </is>
       </c>
     </row>

--- a/data/teacher/Claudinei.xlsx
+++ b/data/teacher/Claudinei.xlsx
@@ -781,7 +781,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2A-Des. Maq. Cad.</t>
         </is>
       </c>
     </row>
@@ -813,7 +813,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2A-Des. Maq. Cad.</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>MEC-2A-Des. Maq. Cad.</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -899,7 +899,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>MEC-2A-Des. Maq. Cad.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -931,7 +931,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>MEC-2A-Des. Maq. Cad.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">

--- a/data/teacher/Claudinei.xlsx
+++ b/data/teacher/Claudinei.xlsx
@@ -781,7 +781,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>MEC-2A-Des. Maq. Cad.</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -813,7 +813,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>MEC-2A-Des. Maq. Cad.</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -909,7 +909,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2A-Des. Maq. Cad.</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2A-Des. Maq. Cad.</t>
         </is>
       </c>
     </row>
